--- a/data/economy/Foreign direct investment in the South West by project type and investor characteristics/FDI-related new jobs by project type, UK regions, 202425.xlsx
+++ b/data/economy/Foreign direct investment in the South West by project type and investor characteristics/FDI-related new jobs by project type, UK regions, 202425.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Economy - Internationalisation\Foreign Direct Investment\South West foreign direct investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Economy - Internationalisation\Foreign Direct Investment\Foreign direct investment in the South West by project type and investor characteristics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC9984D-2127-4001-B514-FC54768E832F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7331CB2D-6861-4981-AB7C-23A9D28499C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A167B590-4D62-452B-AFFA-C58155C75321}"/>
+    <workbookView xWindow="16080" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A167B590-4D62-452B-AFFA-C58155C75321}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975A85A7-3745-4069-A590-AFE6E311C94F}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087F312B-FE2B-43D6-9A20-C1084F216B77}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
